--- a/Delos/PRIJEMNICA NA SERVIS.xlsx
+++ b/Delos/PRIJEMNICA NA SERVIS.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3A8A3A-4271-44D4-BFA0-EFB09E945BC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B534ACA-AA40-4670-ACE2-E04180C46E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,19 +271,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -296,18 +308,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -701,8 +701,8 @@
   </sheetPr>
   <dimension ref="A3:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:H44"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,14 +715,14 @@
       <c r="G3" s="15"/>
     </row>
     <row r="11" spans="2:7" ht="39" x14ac:dyDescent="0.85">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B12" s="13"/>
@@ -734,28 +734,28 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
@@ -770,10 +770,10 @@
       <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="7">
         <v>42769</v>
       </c>
@@ -784,18 +784,18 @@
       <c r="B22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
@@ -805,10 +805,10 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="19" t="s">
         <v>23</v>
       </c>
@@ -818,102 +818,102 @@
       <c r="G25" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="18"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="24"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
@@ -922,40 +922,40 @@
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
@@ -997,17 +997,29 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="21" t="s">
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="21"/>
+      <c r="E48" s="26"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C32:G36"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A43:H44"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="A17:B17"/>
@@ -1021,18 +1033,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C15:D16"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C32:G36"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A43:H44"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
